--- a/config_1.12/shoping_config_cjj.xlsx
+++ b/config_1.12/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4191" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1923">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8136,6 +8136,119 @@
   </si>
   <si>
     <t>9800000,30000000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包-欢乐捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5020万金币","双倍奖励卡*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50200000,10,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2010万金币","双倍奖励卡*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20100000,6,5,</t>
+  </si>
+  <si>
+    <t>"996万金币","双倍奖励卡*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,4,3,</t>
+  </si>
+  <si>
+    <t>"488万金币","双倍奖励卡*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,2,3,</t>
+  </si>
+  <si>
+    <t>欢乐礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000万金币","太阳*10","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_hqjnh_csbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,4,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","太阳*6","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,2,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"996万金币","水滴*4","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_ssbox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9960000,8,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*2","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11066,13 +11179,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN511"/>
+  <dimension ref="A1:AN519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A509" sqref="A509:XFD511"/>
+      <selection pane="bottomRight" activeCell="A512" sqref="A512:XFD519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -43919,6 +44032,550 @@
         <v>1</v>
       </c>
     </row>
+    <row r="512" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="53">
+        <v>511</v>
+      </c>
+      <c r="B512" s="53">
+        <v>10428</v>
+      </c>
+      <c r="F512" s="53">
+        <v>1</v>
+      </c>
+      <c r="G512" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I512" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J512" s="53" t="s">
+        <v>1896</v>
+      </c>
+      <c r="L512" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M512" s="53">
+        <v>0</v>
+      </c>
+      <c r="N512" s="53">
+        <v>0</v>
+      </c>
+      <c r="O512" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P512" s="53">
+        <v>49800</v>
+      </c>
+      <c r="Q512" s="53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R512" s="95" t="s">
+        <v>1899</v>
+      </c>
+      <c r="W512" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X512" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y512" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z512" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA512" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL512" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM512" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="53">
+        <v>512</v>
+      </c>
+      <c r="B513" s="53">
+        <v>10429</v>
+      </c>
+      <c r="F513" s="53">
+        <v>1</v>
+      </c>
+      <c r="G513" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I513" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J513" s="53" t="s">
+        <v>1901</v>
+      </c>
+      <c r="L513" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M513" s="53">
+        <v>0</v>
+      </c>
+      <c r="N513" s="53">
+        <v>0</v>
+      </c>
+      <c r="O513" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P513" s="53">
+        <v>19800</v>
+      </c>
+      <c r="Q513" s="53" t="s">
+        <v>1898</v>
+      </c>
+      <c r="R513" s="95" t="s">
+        <v>1902</v>
+      </c>
+      <c r="W513" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X513" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y513" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z513" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA513" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL513" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM513" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="53">
+        <v>513</v>
+      </c>
+      <c r="B514" s="53">
+        <v>10430</v>
+      </c>
+      <c r="F514" s="53">
+        <v>1</v>
+      </c>
+      <c r="G514" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I514" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J514" s="53" t="s">
+        <v>1903</v>
+      </c>
+      <c r="L514" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M514" s="53">
+        <v>0</v>
+      </c>
+      <c r="N514" s="53">
+        <v>0</v>
+      </c>
+      <c r="O514" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P514" s="53">
+        <v>9800</v>
+      </c>
+      <c r="Q514" s="53" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R514" s="95" t="s">
+        <v>1905</v>
+      </c>
+      <c r="W514" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X514" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y514" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z514" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA514" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL514" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM514" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="53">
+        <v>514</v>
+      </c>
+      <c r="B515" s="53">
+        <v>10431</v>
+      </c>
+      <c r="F515" s="53">
+        <v>1</v>
+      </c>
+      <c r="G515" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I515" s="53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J515" s="53" t="s">
+        <v>1906</v>
+      </c>
+      <c r="L515" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M515" s="53">
+        <v>0</v>
+      </c>
+      <c r="N515" s="53">
+        <v>0</v>
+      </c>
+      <c r="O515" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P515" s="53">
+        <v>4800</v>
+      </c>
+      <c r="Q515" s="53" t="s">
+        <v>1907</v>
+      </c>
+      <c r="R515" s="95" t="s">
+        <v>1908</v>
+      </c>
+      <c r="W515" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X515" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y515" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z515" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA515" s="53">
+        <v>68</v>
+      </c>
+      <c r="AH515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL515" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM515" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="53">
+        <v>515</v>
+      </c>
+      <c r="B516" s="53">
+        <v>10432</v>
+      </c>
+      <c r="F516" s="53">
+        <v>1</v>
+      </c>
+      <c r="G516" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I516" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J516" s="53" t="s">
+        <v>1910</v>
+      </c>
+      <c r="L516" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M516" s="53">
+        <v>0</v>
+      </c>
+      <c r="N516" s="53">
+        <v>0</v>
+      </c>
+      <c r="O516" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P516" s="53">
+        <v>49800</v>
+      </c>
+      <c r="Q516" s="53" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R516" s="95" t="s">
+        <v>1912</v>
+      </c>
+      <c r="W516" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X516" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y516" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z516" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA516" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL516" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM516" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="53">
+        <v>516</v>
+      </c>
+      <c r="B517" s="53">
+        <v>10433</v>
+      </c>
+      <c r="F517" s="53">
+        <v>1</v>
+      </c>
+      <c r="G517" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I517" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J517" s="53" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L517" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M517" s="53">
+        <v>0</v>
+      </c>
+      <c r="N517" s="53">
+        <v>0</v>
+      </c>
+      <c r="O517" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P517" s="53">
+        <v>19800</v>
+      </c>
+      <c r="Q517" s="53" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R517" s="95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="W517" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X517" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y517" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z517" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA517" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL517" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM517" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="53">
+        <v>517</v>
+      </c>
+      <c r="B518" s="53">
+        <v>10434</v>
+      </c>
+      <c r="F518" s="53">
+        <v>1</v>
+      </c>
+      <c r="G518" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I518" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J518" s="53" t="s">
+        <v>1915</v>
+      </c>
+      <c r="L518" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M518" s="53">
+        <v>0</v>
+      </c>
+      <c r="N518" s="53">
+        <v>0</v>
+      </c>
+      <c r="O518" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P518" s="53">
+        <v>9800</v>
+      </c>
+      <c r="Q518" s="53" t="s">
+        <v>1916</v>
+      </c>
+      <c r="R518" s="95" t="s">
+        <v>1917</v>
+      </c>
+      <c r="W518" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X518" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y518" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z518" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA518" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL518" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM518" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:39" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="53">
+        <v>518</v>
+      </c>
+      <c r="B519" s="53">
+        <v>10435</v>
+      </c>
+      <c r="F519" s="53">
+        <v>1</v>
+      </c>
+      <c r="G519" s="53" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I519" s="53" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J519" s="53" t="s">
+        <v>1918</v>
+      </c>
+      <c r="L519" s="53">
+        <v>-33</v>
+      </c>
+      <c r="M519" s="53">
+        <v>0</v>
+      </c>
+      <c r="N519" s="53">
+        <v>0</v>
+      </c>
+      <c r="O519" s="53" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P519" s="53">
+        <v>4800</v>
+      </c>
+      <c r="Q519" s="53" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R519" s="95" t="s">
+        <v>1920</v>
+      </c>
+      <c r="W519" s="53" t="s">
+        <v>1900</v>
+      </c>
+      <c r="X519" s="53">
+        <v>99999999</v>
+      </c>
+      <c r="Y519" s="53">
+        <v>1610407800</v>
+      </c>
+      <c r="Z519" s="53">
+        <v>1610985599</v>
+      </c>
+      <c r="AA519" s="53">
+        <v>69</v>
+      </c>
+      <c r="AH519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL519" s="53">
+        <v>1</v>
+      </c>
+      <c r="AM519" s="53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43929,10 +44586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44909,6 +45566,34 @@
         <v>1</v>
       </c>
       <c r="D68" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="54">
+        <v>68</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C69" s="54">
+        <v>1</v>
+      </c>
+      <c r="D69" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="54">
+        <v>69</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1</v>
+      </c>
+      <c r="D70" s="54">
         <v>0</v>
       </c>
     </row>

--- a/config_1.12/shoping_config_cjj.xlsx
+++ b/config_1.12/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11181,11 +11181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A512" sqref="A512:XFD519"/>
+      <selection pane="bottomRight" activeCell="Y512" sqref="Y512:Y519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44079,7 +44079,7 @@
         <v>99999999</v>
       </c>
       <c r="Y512" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z512" s="53">
         <v>1610985599</v>
@@ -44147,7 +44147,7 @@
         <v>99999999</v>
       </c>
       <c r="Y513" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z513" s="53">
         <v>1610985599</v>
@@ -44215,7 +44215,7 @@
         <v>99999999</v>
       </c>
       <c r="Y514" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z514" s="53">
         <v>1610985599</v>
@@ -44283,7 +44283,7 @@
         <v>99999999</v>
       </c>
       <c r="Y515" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z515" s="53">
         <v>1610985599</v>
@@ -44351,7 +44351,7 @@
         <v>99999999</v>
       </c>
       <c r="Y516" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z516" s="53">
         <v>1610985599</v>
@@ -44419,7 +44419,7 @@
         <v>99999999</v>
       </c>
       <c r="Y517" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z517" s="53">
         <v>1610985599</v>
@@ -44487,7 +44487,7 @@
         <v>99999999</v>
       </c>
       <c r="Y518" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z518" s="53">
         <v>1610985599</v>
@@ -44555,7 +44555,7 @@
         <v>99999999</v>
       </c>
       <c r="Y519" s="53">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="Z519" s="53">
         <v>1610985599</v>
@@ -44588,7 +44588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>

--- a/config_1.12/shoping_config_cjj.xlsx
+++ b/config_1.12/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1929">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8249,6 +8249,30 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","首次救济金为6万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>604800,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11179,13 +11203,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN519"/>
+  <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V486" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V516" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y512" sqref="Y512:Y519"/>
+      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44573,6 +44597,65 @@
         <v>1</v>
       </c>
       <c r="AM519" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5">
+        <v>10436</v>
+      </c>
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="L520" s="5">
+        <v>-23</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="N520" s="5">
+        <v>0</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P520" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="X520" s="5">
+        <v>99999999</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AH520" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_1.12/shoping_config_cjj.xlsx
+++ b/config_1.12/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1930">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8232,47 +8232,46 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4880000,4,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周卡</t>
+  </si>
+  <si>
+    <t>冲金鸡</t>
+  </si>
+  <si>
+    <t>1000000,1</t>
+  </si>
+  <si>
+    <t>{valid_time=604800},</t>
+  </si>
+  <si>
+    <t>604800,1,0</t>
+  </si>
+  <si>
     <t>"488万金币","水滴*2","稀有宝箱*3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hqjnh_xybox",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4880000,4,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_nor_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hqjnh_046_cjj_hllb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"100万金币","首次救济金为6万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>604800,1,0</t>
+    <t>"jing_bi","obj_week_card",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11206,10 +11205,10 @@
   <dimension ref="A1:AN520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V516" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="M505" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A520" sqref="A520:XFD520"/>
+      <selection pane="bottomRight" activeCell="Q520" sqref="Q520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -44549,7 +44548,7 @@
         <v>1909</v>
       </c>
       <c r="J519" s="53" t="s">
-        <v>1918</v>
+        <v>1927</v>
       </c>
       <c r="L519" s="53">
         <v>-33</v>
@@ -44567,10 +44566,10 @@
         <v>4800</v>
       </c>
       <c r="Q519" s="53" t="s">
+        <v>1918</v>
+      </c>
+      <c r="R519" s="95" t="s">
         <v>1919</v>
-      </c>
-      <c r="R519" s="95" t="s">
-        <v>1920</v>
       </c>
       <c r="W519" s="53" t="s">
         <v>1900</v>
@@ -44611,13 +44610,13 @@
         <v>1</v>
       </c>
       <c r="G520" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I520" s="5" t="s">
         <v>1923</v>
       </c>
-      <c r="I520" s="5" t="s">
-        <v>1924</v>
-      </c>
       <c r="J520" s="5" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="L520" s="5">
         <v>-23</v>
@@ -44635,13 +44634,16 @@
         <v>1000</v>
       </c>
       <c r="Q520" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="R520" s="10" t="s">
+        <v>1924</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="W520" s="5" t="s">
         <v>1926</v>
-      </c>
-      <c r="R520" s="10" t="s">
-        <v>1927</v>
-      </c>
-      <c r="W520" s="5" t="s">
-        <v>1928</v>
       </c>
       <c r="X520" s="5">
         <v>99999999</v>
@@ -45657,7 +45659,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C69" s="54">
         <v>1</v>
@@ -45671,7 +45673,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C70" s="54">
         <v>1</v>
